--- a/ListasDatos/Vargas Olvera Francisco Eduardo_2021.xlsx
+++ b/ListasDatos/Vargas Olvera Francisco Eduardo_2021.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="647">
   <si>
     <t>NC</t>
   </si>
@@ -282,7 +282,7 @@
     <t>josueyaminrs@gmail.com</t>
   </si>
   <si>
-    <t>arturombappe10@gamil.com</t>
+    <t>arturombappe10@gmail.com</t>
   </si>
   <si>
     <t>sanjuanneftali@gmail.com</t>
@@ -444,6 +444,9 @@
     <t>MARTIN SAN JUAN CORTES</t>
   </si>
   <si>
+    <t>AGUSTÍN SOLANO MARTÍNEZ</t>
+  </si>
+  <si>
     <t>JESUS VÁZQUEZ SANTIAGO</t>
   </si>
   <si>
@@ -453,9 +456,6 @@
     <t>lilianagarciaconche@gmail.com</t>
   </si>
   <si>
-    <t>Marielc</t>
-  </si>
-  <si>
     <t>rethorespinosa@gmail.com</t>
   </si>
   <si>
@@ -825,7 +825,7 @@
     <t>loganzurielm@gmail.com</t>
   </si>
   <si>
-    <t>yairprz26@gmail.com</t>
+    <t>yair26prz@gmail.com</t>
   </si>
   <si>
     <t>esrammm2503@gmail.com</t>
@@ -1044,6 +1044,9 @@
     <t>ROSAURA BONILLA BAUTISTA</t>
   </si>
   <si>
+    <t>BLANCA ESTELA SANDOVAL DÍAZ</t>
+  </si>
+  <si>
     <t>VALENTE CLEMENTE IXMATLAHUA</t>
   </si>
   <si>
@@ -1128,6 +1131,9 @@
     <t>VICENTE VALENCIA ZAMORA</t>
   </si>
   <si>
+    <t>MARÍA TEREZA RÓDRIGUEZ LOPEZ</t>
+  </si>
+  <si>
     <t>RAMIRO VEGA MUÑOZ</t>
   </si>
   <si>
@@ -1209,6 +1215,9 @@
     <t>Chirrin440@gmail.com</t>
   </si>
   <si>
+    <t>Maytequila133@gmail.com</t>
+  </si>
+  <si>
     <t>ramivega.1296@gmail.com</t>
   </si>
   <si>
@@ -1302,6 +1311,9 @@
     <t>2722132775</t>
   </si>
   <si>
+    <t>2721270249</t>
+  </si>
+  <si>
     <t>2721972586</t>
   </si>
   <si>
@@ -1605,7 +1617,7 @@
     <t>2722340871</t>
   </si>
   <si>
-    <t>5566865294</t>
+    <t>6631083766</t>
   </si>
   <si>
     <t>2721023506</t>
@@ -1716,7 +1728,7 @@
     <t>ELEAZAR CLEMENTE GALLARDO</t>
   </si>
   <si>
-    <t>FINADO FINADO FINADO</t>
+    <t>MARÍA FILOMENA HERNÁNDEZ CHONCOA</t>
   </si>
   <si>
     <t>ARTURO CONDADO SOSA</t>
@@ -1731,6 +1743,9 @@
     <t>MARTIN FLORIBERTO FLORENCIO REYES</t>
   </si>
   <si>
+    <t>GABRIELA FLORES DE LA CRUZ</t>
+  </si>
+  <si>
     <t>GUADALUPE VEGA LÓPEZ</t>
   </si>
   <si>
@@ -1764,7 +1779,7 @@
     <t>JOSÉ ALONSO MORALES LÓPEZ</t>
   </si>
   <si>
-    <t>JUAN MAURICIO LUNA HERNÁNDEZ</t>
+    <t>JUAN MAURICIO MUÑOZ MARTINEZ</t>
   </si>
   <si>
     <t>JOSÉ PORFIRIO OCTAVIANO BALDERAS</t>
@@ -1875,6 +1890,9 @@
     <t>2721222024</t>
   </si>
   <si>
+    <t>2722480188</t>
+  </si>
+  <si>
     <t>2721552625</t>
   </si>
   <si>
@@ -1885,6 +1903,9 @@
   </si>
   <si>
     <t>2721543169</t>
+  </si>
+  <si>
+    <t>2721135977</t>
   </si>
   <si>
     <t>2721354518</t>
@@ -2363,7 +2384,7 @@
         <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J2" t="s">
         <v>158</v>
@@ -2392,7 +2413,7 @@
         <v>122</v>
       </c>
       <c r="I3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J3" t="s">
         <v>159</v>
@@ -2478,9 +2499,6 @@
       <c r="H6" t="s">
         <v>125</v>
       </c>
-      <c r="I6" t="s">
-        <v>145</v>
-      </c>
       <c r="J6" t="s">
         <v>161</v>
       </c>
@@ -2980,6 +2998,9 @@
       <c r="F23" t="s">
         <v>113</v>
       </c>
+      <c r="H23" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
@@ -3004,7 +3025,7 @@
         <v>120</v>
       </c>
       <c r="H24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I24" t="s">
         <v>157</v>
@@ -3090,10 +3111,10 @@
         <v>337</v>
       </c>
       <c r="I2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="J2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3119,10 +3140,10 @@
         <v>338</v>
       </c>
       <c r="I3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3148,10 +3169,10 @@
         <v>339</v>
       </c>
       <c r="I4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J4" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3183,7 +3204,7 @@
         <v>256</v>
       </c>
       <c r="J5" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3234,6 +3255,15 @@
       <c r="F7" t="s">
         <v>296</v>
       </c>
+      <c r="H7" t="s">
+        <v>342</v>
+      </c>
+      <c r="I7" t="s">
+        <v>258</v>
+      </c>
+      <c r="J7" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
@@ -3258,13 +3288,13 @@
         <v>297</v>
       </c>
       <c r="H8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I8" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="J8" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3290,13 +3320,13 @@
         <v>298</v>
       </c>
       <c r="H9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I9" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J9" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3322,13 +3352,13 @@
         <v>329</v>
       </c>
       <c r="H10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I10" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="J10" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3354,10 +3384,10 @@
         <v>330</v>
       </c>
       <c r="H11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I11" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3383,13 +3413,13 @@
         <v>331</v>
       </c>
       <c r="H12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I12" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J12" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3415,13 +3445,13 @@
         <v>302</v>
       </c>
       <c r="H13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I13" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J13" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3444,13 +3474,13 @@
         <v>303</v>
       </c>
       <c r="H14" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I14" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="J14" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3476,13 +3506,13 @@
         <v>304</v>
       </c>
       <c r="H15" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I15" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J15" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3508,13 +3538,13 @@
         <v>305</v>
       </c>
       <c r="H16" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I16" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="J16" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3537,13 +3567,13 @@
         <v>306</v>
       </c>
       <c r="H17" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I17" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="J17" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3566,13 +3596,13 @@
         <v>307</v>
       </c>
       <c r="H18" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I18" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="J18" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3595,13 +3625,13 @@
         <v>308</v>
       </c>
       <c r="H19" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I19" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="J19" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3627,13 +3657,13 @@
         <v>309</v>
       </c>
       <c r="H20" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I20" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J20" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3659,7 +3689,7 @@
         <v>310</v>
       </c>
       <c r="H21" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3685,13 +3715,13 @@
         <v>311</v>
       </c>
       <c r="H22" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I22" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J22" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3717,13 +3747,13 @@
         <v>332</v>
       </c>
       <c r="H23" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I23" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="J23" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3746,7 +3776,7 @@
         <v>313</v>
       </c>
       <c r="H24" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I24" t="s">
         <v>275</v>
@@ -3778,13 +3808,13 @@
         <v>314</v>
       </c>
       <c r="H25" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I25" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="J25" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3810,13 +3840,13 @@
         <v>333</v>
       </c>
       <c r="H26" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I26" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="J26" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3842,10 +3872,10 @@
         <v>316</v>
       </c>
       <c r="H27" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J27" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3868,13 +3898,13 @@
         <v>317</v>
       </c>
       <c r="H28" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I28" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="J28" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3900,13 +3930,13 @@
         <v>318</v>
       </c>
       <c r="H29" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I29" t="s">
         <v>280</v>
       </c>
       <c r="J29" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3932,10 +3962,10 @@
         <v>319</v>
       </c>
       <c r="H30" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J30" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3961,13 +3991,13 @@
         <v>320</v>
       </c>
       <c r="H31" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I31" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="J31" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3993,13 +4023,13 @@
         <v>334</v>
       </c>
       <c r="H32" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I32" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="J32" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4025,13 +4055,13 @@
         <v>335</v>
       </c>
       <c r="H33" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I33" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="J33" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4054,13 +4084,13 @@
         <v>323</v>
       </c>
       <c r="H34" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I34" t="s">
         <v>285</v>
       </c>
       <c r="J34" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -4086,13 +4116,13 @@
         <v>336</v>
       </c>
       <c r="H35" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I35" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J35" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4118,13 +4148,13 @@
         <v>325</v>
       </c>
       <c r="H36" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I36" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="J36" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4146,6 +4176,15 @@
       <c r="F37" t="s">
         <v>326</v>
       </c>
+      <c r="H37" t="s">
+        <v>371</v>
+      </c>
+      <c r="I37" t="s">
+        <v>399</v>
+      </c>
+      <c r="J37" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
@@ -4167,13 +4206,13 @@
         <v>327</v>
       </c>
       <c r="H38" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="I38" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="J38" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4199,7 +4238,7 @@
         <v>328</v>
       </c>
       <c r="H39" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="I39" t="s">
         <v>290</v>
@@ -4270,28 +4309,28 @@
         <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="E2" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="F2" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="G2" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="H2" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I2" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="J2" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4302,28 +4341,28 @@
         <v>207</v>
       </c>
       <c r="C3" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D3" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="E3" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F3" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="G3" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H3" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="I3" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="J3" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4331,28 +4370,28 @@
         <v>19330051920088</v>
       </c>
       <c r="B4" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C4" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D4" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="E4" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F4" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="H4" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="I4" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="J4" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4363,28 +4402,28 @@
         <v>214</v>
       </c>
       <c r="C5" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E5" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="F5" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="G5" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="H5" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="I5" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="J5" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4395,28 +4434,28 @@
         <v>214</v>
       </c>
       <c r="C6" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D6" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="E6" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="F6" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="G6" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H6" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="I6" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4430,25 +4469,25 @@
         <v>212</v>
       </c>
       <c r="D7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="F7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="G7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="H7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="I7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="J7" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4456,25 +4495,28 @@
         <v>19330051920091</v>
       </c>
       <c r="B8" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="E8" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F8" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="G8" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="H8" t="s">
-        <v>566</v>
+        <v>570</v>
+      </c>
+      <c r="J8" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4482,28 +4524,28 @@
         <v>19330051920093</v>
       </c>
       <c r="B9" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C9" t="s">
         <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="E9" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="F9" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H9" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="I9" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="J9" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4514,22 +4556,22 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D10" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E10" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="F10" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="H10" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="J10" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4543,22 +4585,22 @@
         <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="E11" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="F11" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="H11" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I11" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="J11" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4566,31 +4608,31 @@
         <v>19330051920097</v>
       </c>
       <c r="B12" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C12" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D12" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="E12" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F12" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="G12" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="H12" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="I12" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="J12" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4604,13 +4646,19 @@
         <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="E13" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="F13" t="s">
-        <v>529</v>
+        <v>533</v>
+      </c>
+      <c r="H13" t="s">
+        <v>575</v>
+      </c>
+      <c r="J13" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4621,25 +4669,25 @@
         <v>208</v>
       </c>
       <c r="C14" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D14" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E14" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="F14" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G14" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="H14" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="J14" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4653,25 +4701,25 @@
         <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E15" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="F15" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="G15" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="H15" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="I15" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="J15" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4682,28 +4730,28 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D16" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="E16" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="F16" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="G16" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="H16" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="I16" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="J16" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4714,25 +4762,25 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D17" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="E17" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="F17" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="H17" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="I17" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="J17" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4740,31 +4788,31 @@
         <v>19330051920105</v>
       </c>
       <c r="B18" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C18" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D18" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E18" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="F18" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G18" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="H18" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="I18" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="J18" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4775,28 +4823,28 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D19" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E19" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F19" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="G19" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="H19" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="I19" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="J19" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4804,31 +4852,31 @@
         <v>19330051920106</v>
       </c>
       <c r="B20" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C20" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D20" t="s">
         <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="F20" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G20" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="H20" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="I20" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="J20" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4836,31 +4884,31 @@
         <v>19330051920107</v>
       </c>
       <c r="B21" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="E21" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="F21" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="G21" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H21" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="I21" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="J21" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4868,28 +4916,28 @@
         <v>19330051920109</v>
       </c>
       <c r="B22" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C22" t="s">
         <v>208</v>
       </c>
       <c r="D22" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="E22" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="F22" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="H22" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="I22" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="J22" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4903,25 +4951,25 @@
         <v>189</v>
       </c>
       <c r="D23" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="E23" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F23" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="G23" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H23" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="I23" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="J23" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4935,25 +4983,25 @@
         <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E24" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F24" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="G24" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="H24" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="I24" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="J24" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4964,25 +5012,25 @@
         <v>215</v>
       </c>
       <c r="C25" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D25" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E25" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F25" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="G25" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="H25" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I25" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4990,28 +5038,28 @@
         <v>19330051920115</v>
       </c>
       <c r="B26" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C26" t="s">
         <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="E26" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="F26" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H26" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="I26" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="J26" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5019,28 +5067,28 @@
         <v>19330051920116</v>
       </c>
       <c r="B27" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C27" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D27" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E27" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="F27" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="H27" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="I27" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="J27" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5048,31 +5096,31 @@
         <v>19330051920117</v>
       </c>
       <c r="B28" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="E28" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="F28" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="G28" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H28" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="I28" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="J28" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5086,25 +5134,25 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="E29" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="F29" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="G29" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="H29" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="I29" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="J29" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -5112,31 +5160,31 @@
         <v>19330051920119</v>
       </c>
       <c r="B30" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E30" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="F30" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="G30" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="H30" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="I30" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="J30" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -5144,25 +5192,25 @@
         <v>19330051920120</v>
       </c>
       <c r="B31" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C31" t="s">
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="E31" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F31" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="H31" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="J31" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -5173,25 +5221,25 @@
         <v>212</v>
       </c>
       <c r="C32" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D32" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E32" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="F32" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="G32" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H32" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="J32" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -5199,31 +5247,31 @@
         <v>19330051920122</v>
       </c>
       <c r="B33" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C33" t="s">
         <v>204</v>
       </c>
       <c r="D33" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E33" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="F33" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="G33" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="H33" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="I33" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="J33" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
